--- a/reference.xlsx
+++ b/reference.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bengrollpmt/Documents/own_projects/upython-uxui/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2EF631-6F58-0446-8522-B32642538C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E4D791-8AAC-754C-B19A-4EEFE71228DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="15880" xr2:uid="{80FF6700-6EC2-0548-A450-A8911FD014D3}"/>
+    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="15800" xr2:uid="{80FF6700-6EC2-0548-A450-A8911FD014D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Draw Calls" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="44">
   <si>
     <t>Name</t>
   </si>
@@ -105,6 +105,69 @@
   </si>
   <si>
     <t>false</t>
+  </si>
+  <si>
+    <t>uHEAD</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>Node Explaination</t>
+  </si>
+  <si>
+    <t>uNODE</t>
+  </si>
+  <si>
+    <t>req child</t>
+  </si>
+  <si>
+    <t>uPBOX</t>
+  </si>
+  <si>
+    <t>modX</t>
+  </si>
+  <si>
+    <t>modY</t>
+  </si>
+  <si>
+    <t>modXvalue</t>
+  </si>
+  <si>
+    <t>modYvalue</t>
+  </si>
+  <si>
+    <t>alignX</t>
+  </si>
+  <si>
+    <t>alignY</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>align.center</t>
+  </si>
+  <si>
+    <t>Aligns child Node and gives it only a percentual portion of ist space</t>
+  </si>
+  <si>
+    <t>uCARD</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>rounded</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>fill_border</t>
+  </si>
+  <si>
+    <t>Card</t>
   </si>
 </sst>
 </file>
@@ -651,12 +714,203 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B61F502-D76D-864A-97D0-2551972E57FA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="7" max="7" width="24.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/reference.xlsx
+++ b/reference.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bengrollpmt/Documents/own_projects/upython-uxui/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E4D791-8AAC-754C-B19A-4EEFE71228DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A1A04A-ECAC-AE4F-9BE5-DB3105F34B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="15800" xr2:uid="{80FF6700-6EC2-0548-A450-A8911FD014D3}"/>
+    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="15800" activeTab="1" xr2:uid="{80FF6700-6EC2-0548-A450-A8911FD014D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Draw Calls" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="42">
   <si>
     <t>Name</t>
   </si>
@@ -125,12 +125,6 @@
     <t>uPBOX</t>
   </si>
   <si>
-    <t>modX</t>
-  </si>
-  <si>
-    <t>modY</t>
-  </si>
-  <si>
     <t>modXvalue</t>
   </si>
   <si>
@@ -149,9 +143,6 @@
     <t>align.center</t>
   </si>
   <si>
-    <t>Aligns child Node and gives it only a percentual portion of ist space</t>
-  </si>
-  <si>
     <t>uCARD</t>
   </si>
   <si>
@@ -168,6 +159,9 @@
   </si>
   <si>
     <t>Card</t>
+  </si>
+  <si>
+    <t>If anything other than 100 -&gt; mod</t>
   </si>
 </sst>
 </file>
@@ -530,7 +524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A19F071-0291-4F43-8A5C-822F4B6AA975}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -716,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B61F502-D76D-864A-97D0-2551972E57FA}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -766,37 +760,12 @@
         <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
@@ -804,10 +773,13 @@
       <c r="G8">
         <v>100</v>
       </c>
+      <c r="H8" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
@@ -815,32 +787,35 @@
       <c r="G9">
         <v>100</v>
       </c>
+      <c r="H9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
         <v>33</v>
       </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" t="s">
         <v>34</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
@@ -849,21 +824,21 @@
         <v>26</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
       </c>
       <c r="G14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -885,18 +860,18 @@
         <v>7</v>
       </c>
       <c r="G16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s">
         <v>7</v>
       </c>
       <c r="G17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.2">
@@ -907,7 +882,7 @@
         <v>7</v>
       </c>
       <c r="G18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/reference.xlsx
+++ b/reference.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bengrollpmt/Documents/own_projects/upython-uxui/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A1A04A-ECAC-AE4F-9BE5-DB3105F34B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7227C100-C480-8248-866A-CF3C5B1078D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="15800" activeTab="1" xr2:uid="{80FF6700-6EC2-0548-A450-A8911FD014D3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -162,6 +162,51 @@
   </si>
   <si>
     <t>If anything other than 100 -&gt; mod</t>
+  </si>
+  <si>
+    <t>uROW</t>
+  </si>
+  <si>
+    <t>children</t>
+  </si>
+  <si>
+    <t>[uNODE]</t>
+  </si>
+  <si>
+    <t>seperator</t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>percent of whole width being taken up by whitespace</t>
+  </si>
+  <si>
+    <t>spacing</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>Options are "spacing.equal", "spacing.end", "spacing.start", "spacing.symmetric"</t>
+  </si>
+  <si>
+    <t>container</t>
+  </si>
+  <si>
+    <t>each child gets this widget as parent</t>
+  </si>
+  <si>
+    <t>include_edges</t>
+  </si>
+  <si>
+    <t>boo,l</t>
+  </si>
+  <si>
+    <t>Whether to place seperators on begin and end of row when using space.equal</t>
+  </si>
+  <si>
+    <t>"spacing.equal "</t>
   </si>
 </sst>
 </file>
@@ -708,15 +753,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B61F502-D76D-864A-97D0-2551972E57FA}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="7" max="7" width="24.33203125" customWidth="1"/>
+    <col min="8" max="8" width="95.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.3">
@@ -863,7 +909,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>39</v>
       </c>
@@ -874,7 +920,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>5</v>
       </c>
@@ -883,6 +929,76 @@
       </c>
       <c r="G18" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
